--- a/AMZ.001/Data/Output/Challenge RPA - NI - InOut - Template.xlsx
+++ b/AMZ.001/Data/Output/Challenge RPA - NI - InOut - Template.xlsx
@@ -73,29 +73,29 @@
     <x:t>Argentina</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.amazon.com/Unidapt-Adapter-Grounded-Adaptor-Converter/dp/B08D741PV6/ref=sr_1_1?crid=2J6FDFXRCR2WM&amp;dib=eyJ2IjoiMSJ9.K2c0mq1tMCIjPZkR-tsxpGTqHNyKTOqFcX_K_gbCh0PhndQJ3ZOK_aZlwBBWwltAGPK-_8afrl-cjbstcJSwD5ZaTjhABsM_7axIomXAAQuze7pk8y_T1oMUgAqQHmO4ZyxeHoHhLOdA9Y1T0_O42KeUrQDktqrm5sa-N6b5isK-zlf62KnEzTw39jnWE7hXEa7xRgnOWCU7So-VHHtArv9jwD3aMWW9yL8e8fZ9GP8EEx1Mpw-YL2Q5ikXWL_Ecm5i9Zc4Tm1hMZ9hLNAElqduzfvF6RJNH1iLSve8MhIAWDb7Wb8FWhKSkW2xXH7cyV3y0lyN2GtybJTTEaUERbNOEWZjnKVaal_s6Wp9k4ordjXUco84P0-18RtkzdfyWLWpbj_E35ig2w0mtPPO8AoeuVYpRGNbrG1tuFhJdfkSODsc-0YtJ5-AVuLpYhJtT.KbxztTRLoi4RBu7xBWleFMwI1vtvjBeNRWKMFOBPfA4&amp;dib_tag=se&amp;keywords=Unidapt%2BAdaptador%2Bde%2Benchufe%2Bde%2Bviaje&amp;qid=1739911471&amp;sprefix=unidapt%2Badaptador%2Bde%2Benchufe%2Bde%2Bviaje%2Caps%2C186&amp;sr=8-1&amp;th=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04/03/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28,826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 - 77%
-4 - 11%
-3 - 6%
+    <x:t>https://www.amazon.com/European-VINTAR-International-American-Attachments/dp/B0BRSQR7Y6/ref=sr_1_1_sspa?crid=Z37JV6YK9LAI&amp;dib=eyJ2IjoiMSJ9.P1-2Eeg7UlT2YzST8yRlTghteW08-aTXyMG_YLQvcC2kwtrZkO8RkWOYALhbhjrAB-5DoQGFYAI0z-tfFnSfZgVWbyCjv_aACqEii0Xxefp7IoDrbN0Ci3hKGzuxS9LZhw64yzU1bGx1TBMWEmQ73ax0iVyotKtHMzcpYzJs-X2yuhtxsHGEjr2SJljAn2f2PNqX4AuZx9VyCvMxqUcpQuWcAqxDpzMB0UTPB9l-GNRl5lleccEfrsRQpTO1ubnCs8lvugxqoasl1V3yYn2Ae6KEq1j_cbFkZKHVSFPQVwg.8AoJe372LKKPxnp_PmkSKh-fmJYtb3IL4UdYUwBkASE&amp;dib_tag=se&amp;keywords=Unidapt%2BAdaptador%2Bde%2Benchufe%2Bde%2Bviaje&amp;qid=1739920152&amp;sprefix=unidapt%2Badaptador%2Bde%2Benchufe%2Bde%2Bviaje%2Caps%2C286&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/03/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 79%
+4 - 12%
+3 - 5%
 2 - 1%
-1 - 5%</x:t>
+1 - 3%</x:t>
   </x:si>
   <x:si>
     <x:t>SAMSUNG EVO Select + adaptador microSDXC de 256 GB</x:t>
@@ -104,7 +104,10 @@
     <x:t>Chile</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.amazon.com/SAMSUNG-microSDXC-Expanded-MB-ME256KA-AM/dp/B09B1GXM16/ref=sr_1_1?crid=3GASHTOA4MRR4&amp;dib=eyJ2IjoiMSJ9.KAEEqKIp9eeN4YGKG5Mgoal4RQESXDXPEKpimGW6wrSnKdy1Xl-3EIfpso1snpGlquzwHPtomwU9IopSsdahYNHna5_oqFw8zVcBRHeCP37-5MMUfK7T4TZ_t3B4G6cin-HlBCCEpcpQBgEzvHI4-dGCJtjATmntPBvrd0MP-kl0dW2z0Pb_Y2WTZR_4Hy4VPhKrVyVYRNdbCpFtKT2hUsOjvxHDRpVIwUatS7kpH1I.U_UDCrcqAdtfMPznYc5SBStIi8FIrHvaVjUNhJiasug&amp;dib_tag=se&amp;keywords=SAMSUNG%2BEVO%2BSelect%2B%2B%2Badaptador%2BmicroSDXC%2Bde%2B256%2BGB&amp;qid=1739911506&amp;sprefix=samsung%2Bevo%2Bselect%2B%2B%2Badaptador%2Bmicrosdxc%2Bde%2B256%2Bgb%2Caps%2C184&amp;sr=8-1&amp;th=1</x:t>
+    <x:t>https://www.amazon.com/SAMSUNG-microSDXC-Expanded-MB-ME256KA-AM/dp/B09B1GXM16/ref=sr_1_1?crid=1V493T71URZMO&amp;dib=eyJ2IjoiMSJ9.KAEEqKIp9eeN4YGKG5Mgoal4RQESXDXPEKpimGW6wrSnKdy1Xl-3EIfpso1snpGlquzwHPtomwU9IopSsdahYJ6BUP0VPlh4BRthT98ln3L32jg8ZoW15XazWHXb33Wq5ZNOTLfugArqGE2NTbp-HzN2vogrEY1zoYEWC-BNxjqNiHGe8yDXafHi03b4dD6Z991bKBX6Wd9zlDjqMXRHXUej9Iz4jRvCz9L3apRJSDQ.mi5ru9zZKyh8BXCcvaB0z6BbpWO4II9o9jnjTDZtJUI&amp;dib_tag=se&amp;keywords=SAMSUNG%2BEVO%2BSelect%2B%2B%2Badaptador%2BmicroSDXC%2Bde%2B256%2BGB&amp;qid=1739920189&amp;sprefix=samsung%2Bevo%2Bselect%2B%2B%2Badaptador%2Bmicrosdxc%2Bde%2B256%2Bgb%2Caps%2C226&amp;sr=8-1&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/03/2025</x:t>
   </x:si>
   <x:si>
     <x:t>19,018</x:t>
@@ -129,7 +132,10 @@
     <x:t>KSIPZE Tira de luces LED de 100 pies</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.amazon.com/dalattin-Bedroom-Control-Changing-Valentine/dp/B0CFVFTY14/ref=sr_1_1_sspa?crid=3QFGX5S9T0XZI&amp;dib=eyJ2IjoiMSJ9.kiU327bb43jErK-rCB3nI2tbeO_iQ_ksC84rKfRS0v7L2W_FWUAd9q4oAKKzqcYJ75MtM8AMEJVOVaFw3VX75exko_kJRZ6DfUpM-pVPj4xp-fcGL0eqscILO79q7W2Yr8gkoNzSStSgGJfkCiy2bWRFr2d51FMw9u1aVe56uEfraon-n23cyXHG9ZoNPLeJYk0xliaVaxBah4sWdMYxd_jWYz6Yts1wmoMD8dWRa9mP6xuBFRHjkX_ExGLBpWlUENCOe1tFsO7AMce0bbxjIECaz7Z0ZTRXplIqb0BBrrk.oFyE-Xe0_PTd2yOrAsEEPHUyCkDxq64a_QlvjI0fXuU&amp;dib_tag=se&amp;keywords=KSIPZE%2BTira%2Bde%2Bluces%2BLED%2Bde%2B100%2Bpies&amp;qid=1739911544&amp;sprefix=ksipze%2Btira%2Bde%2Bluces%2Bled%2Bde%2B100%2Bpies%2Caps%2C169&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+    <x:t>https://www.amazon.com/dalattin-Bedroom-Control-Changing-Valentine/dp/B0CFVFTY14/ref=sr_1_1_sspa?crid=2L297T1G2QMJB&amp;dib=eyJ2IjoiMSJ9.Y0PBc4wiDI_DyanbOqAA8-vsImsnp21rOtMuZMdx6ebE1U_lQSInMuLoX6GOOohug76jbzGaFNcrR3EQaVDZmNdLHczdR6VgJwBDmBO601VEAeSTRv7oXYwGF7I5reaV3pvaK0_IZGR9NWAR_KGc-M3zYdw5UZHB7Jryc9a6fxGTN4Z1a-6og5vpwTLLdtKX1aMwUduqdNFa4G4ZmanlO3GqSoHFKL9tcp9nN2qn_DnPM0Dg6u3aOXcVwxZuKGgBBvk816bBhuNf1tYhVBq-rq-TNOBZT7kTM4qsdU00N20.NM6rPIra3vRlEl74LCMAlRGz-WG4KhrAKfWZ6KM6NT8&amp;dib_tag=se&amp;keywords=KSIPZE%2BTira%2Bde%2Bluces%2BLED%2Bde%2B100%2Bpies&amp;qid=1739920227&amp;sprefix=ksipze%2Btira%2Bde%2Bluces%2Bled%2Bde%2B100%2Bpies%2Caps%2C249&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/03/2025</x:t>
   </x:si>
   <x:si>
     <x:t>13,310</x:t>
@@ -154,19 +160,19 @@
     <x:t>Brasil</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.amazon.com/BLACK-DECKER-Convection-Stainless-TO1760SS/dp/B0721CGB5F/ref=sr_1_1?crid=3NWGZV85BK9M3&amp;dib=eyJ2IjoiMSJ9.FBlJghyFiWw_NBzGkZv6LplCQEh3Hbkq0WbzqEZGzeEsMLPkbuigYc2Ciaz5wJrVhECKxScSjZXXzovY-gY2XWxoetHKciQzigF9KXWOv7jClIebMIT1CWUPbtplvAsGcMiiqUcRdjJnyjnFYggySkpTT76WSw08s0UCVEnbaIricGTtCTdOX_ZNf7iwcCcX1bDBTAtEVs5QPhfQOQRWJ5QBfjXwIUGxECvFoJ2dC1g.kUHgHYPNiDOyGN7dTJQO41XhJQwowr20p2CWvT_4ZEM&amp;dib_tag=se&amp;keywords=Black%2B%26%2BDecker%2BHorno%2Btostador&amp;qid=1739911580&amp;sprefix=black%2B%26%2Bdecker%2Bhorno%2Btostador%2Caps%2C202&amp;sr=8-1&amp;th=1</x:t>
+    <x:t>https://www.amazon.com/BLACK-DECKER-Convection-Stainless-TO1760SS/dp/B0721CGB5F/ref=sr_1_1_sspa?crid=1X8TM2K9WMN3Q&amp;dib=eyJ2IjoiMSJ9.FBlJghyFiWw_NBzGkZv6LplCQEh3Hbkq0WbzqEZGzeEsMLPkbuigYc2Ciaz5wJrVhECKxScSjZXXzovY-gY2XWxoetHKciQzigF9KXWOv7jClIebMIT1CWUPbtplvAsGcMiiqUcRdjJnyjnFYggyStu9XB6OY5xH-774l7YPg7fzhADIW6CBYcPG3stAiH6WnyExyO4LdC2FZj4CBs7_5SKgMhYU0Y9Shkzd6a_ij5c.sK3pl9-pUmwELtp8wBpkla0W-WKsedPyx_XbsW0jnlI&amp;dib_tag=se&amp;keywords=Black%2B%26%2BDecker%2BHorno%2Btostador&amp;qid=1739920263&amp;sprefix=black%2B%26%2Bdecker%2Bhorno%2Btostador%2Caps%2C336&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
     <x:t>XFX Speedster SWFT 210 Radeon RX 6600 CORE</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.amazon.com/XFX-Speedster-SWFT105-Graphics-RX-64XL4SFG2/dp/B09Y7358KJ/ref=sr_1_1?crid=1PZI904QSA2F1&amp;dib=eyJ2IjoiMSJ9.Es9kaOg4gRMW5YqkHWOsG7l3FqDYnU7AYjwcQYe7-fWR4sPFzDdaCgSR_Dq-VL4HyNCMBnr88yNw5Yi29pyqKoLjM9NRww0Rk1mr1scwoNFfy71iB6wz4WuYzJJUFN-gExRcf2CpOBHbUoINDhURpIKT8woMaEuLuEHRBnw8dVjtxlU7OQNsUWK7xP9SCiGRFjkdo03l2zaqztJLKks1lyfkrsNdR0Hq_XnzDTEzreo.S3i8hQcbj_rxd2_rW_Um5rfBQRtoHnmcCdIsKOYdULk&amp;dib_tag=se&amp;keywords=XFX%2BSpeedster%2BSWFT%2B210%2BRadeon%2BRX%2B6600%2BCORE&amp;qid=1739911637&amp;sprefix=xfx%2Bspeedster%2Bswft%2B210%2Bradeon%2Brx%2B6600%2Bcore%2Caps%2C256&amp;sr=8-1&amp;th=1</x:t>
+    <x:t>https://www.amazon.com/XFX-Speedster-SWFT105-Graphics-RX-64XL4SFG2/dp/B09Y7358KJ/ref=sr_1_1?crid=H5ZJ55C5K5H&amp;dib=eyJ2IjoiMSJ9.qYAqp9BOHAA5_ijMd8QrSuw2KqKECg_JOKpzkltGnsUzvipuvDu7S6febzwmUrPpcDGIiUTGBCemDj1Yp39rrQ1HHgzh5MqtbiRsTIFUewfSddNSvNlpMhibobIkKoJX6goxnEDCFbYCQXOPI6IdfVGdwB6L88qVDFwwfmv5wSAZnkHtv1rI7nG-_mnVuWGj2JXYfvJhK5LO8PWb4vdwe6eDlyZkBa3-2W4aWc-Hiv4.zcotDr5FCcLYShp03QjsLXRBsETCuWg5pixDyhDl9z0&amp;dib_tag=se&amp;keywords=XFX%2BSpeedster%2BSWFT%2B210%2BRadeon%2BRX%2B6600%2BCORE&amp;qid=1739920322&amp;sprefix=xfx%2Bspeedster%2Bswft%2B210%2Bradeon%2Brx%2B6600%2Bcore%2Caps%2C318&amp;sr=8-1&amp;th=1</x:t>
   </x:si>
   <x:si>
     <x:t>Flopping Fish</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.amazon.com/Potaroma-Electric-Flopping-Realistic-Interactive/dp/B083S3ZXDF/ref=sr_1_1_sspa?crid=MXLMSF7K2LBS&amp;dib=eyJ2IjoiMSJ9.95l-o-ASmYnKl51zuDE9e_M5cJqnCC-Es5j5nErtlG26EQrRh95FFmguJnVJVF70bLysElt-8XK-5997OMc3ikZtL55QSYJUOCnsek1Sp1_ozN1aF_OAN07JUFX_g3SD4AXNGdKhoxQyjop1qkoUvLDvhMsJKvhGhCv5PoyEYmkBEfeYNZeAoF6raH1eGQYksAJd9mijXG38-_aulJ5ta7QybWC2TZpkyvnM7n0uQWvbM8dpGPtlWYpdfpekEudYJpCuN2s83XrB_QlNIwHkpgxwYek4Ti-rNGcIYxLeXrA.ofZKk7W9xMC3vANC2qlfNp3KbVgQDz00SW-jEF9UhlQ&amp;dib_tag=se&amp;keywords=Flopping%2BFish&amp;qid=1739911665&amp;sprefix=flopping%2Bfish%2Caps%2C265&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+    <x:t>https://www.amazon.com/Potaroma-Electric-Flopping-Realistic-Interactive/dp/B083S3ZXDF/ref=sr_1_1_sspa?crid=3LMPCSPENKXJJ&amp;dib=eyJ2IjoiMSJ9.95l-o-ASmYnKl51zuDE9e_M5cJqnCC-Es5j5nErtlG1GIed25cqSvCNHyf3CNTsC8su5v8HC5fO3hX0azzYGaEZtL55QSYJUOCnsek1Sp1_ozN1aF_OAN07JUFX_g3SD4AXNGdKhoxQyjop1qkoUvLDvhMsJKvhGhCv5PoyEYmkBEfeYNZeAoF6raH1eGQYkU5wEB1B8CVekxU7kMB6YCWW1t5uAlNMkwWPyaQ-5pQXbM8dpGPtlWYpdfpekEudYJpCuN2s83XrB_QlNIwHkpmTa5mXA8b5Mf8iuMdfJDa0.cvcqSJRY6gPypzJBeEw41p8LgydIfugvXaRJSvoE2IE&amp;dib_tag=se&amp;keywords=Flopping%2BFish&amp;qid=1739920350&amp;sprefix=flopping%2Bfish%2Caps%2C325&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
     <x:t>12,349</x:t>
@@ -185,11 +191,273 @@
 1 - 7%</x:t>
   </x:si>
   <x:si>
-    <x:t>5 - 77%
+    <x:t>Classical Piano Sheet Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Famous-Classical-Piano-Solos-Rachmaninoff/dp/0486851990/ref=sr_1_1_sspa?crid=2JL6CKM01L3E9&amp;dib=eyJ2IjoiMSJ9.VwUAeNl7b2RF_pFBYcrQoXHPVr7Z7E_vFK-1_9Je2Zf0YNjCj1QR8nhEQXsbNjnaBdUKTrSqwFnhu30aslSTHB_Ro1V-J_PUnG5OYCtW0PPaz15mZnltINYGlU92VY1jtgJtp-t3mfoTvzNMv_zMosexMRg3tbjxzxcotuzawWfNft2lpJFA6Swg_idP0OJfhTUTZoHXGqjMD7AKyICtqWuQLOzpPYnpPIzILVQr4UGJxfExE7ad_MzS1N8DosIO7mB2Funcwc3Cr1egiDPhOJFxlZs-1j3INK8tIsXo6M4.yl7jOSC7X0gq4cGJ7kr-XKFrBLjsKELwUtwKDK-A3Pw&amp;dib_tag=se&amp;keywords=Classical+Piano+Sheet+Music&amp;qid=1739920386&amp;sprefix=classical+piano+sheet+music%2Caps%2C331&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 76%
+4 - 12%
+3 - 0%
+2 - 12%
+1 - 0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mueller 7-inch Meat Cleaver Knife</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Mueller-Cleaver-Stainless-Professional-Restaurant/dp/B08BX7FMQN/ref=sr_1_1?crid=2DJ8ZX7YOLBS3&amp;dib=eyJ2IjoiMSJ9.O8dts22BWVDdmSKWMrdzN_u_nRI9h9RKc7N_X1UjO61-yw5cYnTb_OcCImz3-kD9fnyBscyVsAMKpnRmkCjMSTeHgNxB5eHv-ZciGGkxLN2uQwOiZELpcmhhgWoRB_JZ3lUwRLEyViCzWtFLtEIo_TJU2lff8JfPBFUmdK_bkZM7z-MvF04u-l4NKD-W6nCUxj8wROfzzHufOs8wSoha8haGYrI3dQeLLrFed8E5QqrBtTfS_kgA9KJ4UEzVDM2rDWEtsF6sQU5hwvMetPVpy1ZNL1VWH69ZtxOKNJnSDLB5URapcBxAMXBR-mYo8LgcRyhW54U7cuSLQeQgTGiUNFvbW4PugmLHt0VckUC1zk5mAQBmwF1Y4ov3WSiIOAOewmyMssy-jMEcAOsKlW589A2u07o63a6nzyToPqfGfoEg7cAN4ALAz2tnni1yxgeE.saPX9Vz3vMHC4A5kizkJnFuqO8Uftg4gb8ok-yPCmkc&amp;dib_tag=se&amp;keywords=Mueller+7-inch+Meat+Cleaver+Knife&amp;qid=1739920420&amp;sprefix=mueller+7-inch+meat+cleaver+knife%2Caps%2C319&amp;sr=8-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 81%
+4 - 13%
+3 - 4%
+2 - 1%
+1 - 2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Utopia Towels 6 Pack Premium Hand Towels Set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Utopia-Towels-Premium-Grey-Hand/dp/B083KKF8F8/ref=sr_1_1?crid=3MV2DRPTS7IGC&amp;dib=eyJ2IjoiMSJ9.wJ9I0Id45iJQZj9CUENFkjDmlWfTPMj6oQpONKON0aHNRa_Zw8kj411q3yuKudrunfeCeA-sWztSJzUjzkDkzMACflY8-oeenGmuV-zms4Sm-tOkXsYMMthUCdJCbTtVfUziwAB7hlyo-L1dW-6qNrp8RlJbcmLU_3An_5-M5qKq_xholKyJAQVbTpoQtBmQIv_j5eO-9QL6o-y-mNdDlT48K8YGNQdQEGhQ3rkzDf6Y4Cs3h9EHhJZJIHzOuOyRdhhlNbyZDNaXLHHVMRkIaQ-cNhVGixx9FIPJZH0CbiNzhsNmEyOIGz27M4HFlVJbgtNYTLi8lEw3sGZD9kxdWqPvNdfgvgoZZDdTIwPz_zDpLFvVvvmCTNzTzHbmpt8sEm7v5YgSArIgGaiJk47k7OYb-HXQNVpN2p7qUtSr6ct4nvl-F1_f-RqnS5xMxOyK.0BbyqyMLp7ANM1E_IZGOYfOfEZYq8iluz3U2Iw5e28w&amp;dib_tag=se&amp;keywords=Utopia%2BTowels%2B6%2BPack%2BPremium%2BHand%2BTowels%2BSet&amp;qid=1739920456&amp;sprefix=utopia%2Btowels%2B6%2Bpack%2Bpremium%2Bhand%2Btowels%2Bset%2Caps%2C307&amp;sr=8-1&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 71%
+4 - 14%
+3 - 7%
+2 - 3%
+1 - 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amazon Basics Neoprene Workout Dumbbell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/AmazonBasics-Pound-Neoprene-Dumbbells-Weights/dp/B01LR5RVYE/ref=sr_1_1?crid=7GSDL9GY91WF&amp;dib=eyJ2IjoiMSJ9.dNJUqauWIh6eS3fWzPmyl0ifTp3m66OiLs_kj3kv3k2MlLTmInaLQS2hxEQF7chuDGgN06dsWB_JhPLUo__GaM6HNG1wJdftv1N9Z65DqyZqWgI7OW0gtURJmyu36HqzHXxws1OLk5umNhtAt4Ssi41oysBTpjbb7-mzmVPPIpiWXiTq5Gl23TEnBgiNu2SDf5Ai4NP8vSWNKuXIZ5bETKS12C3okivU6UTgNHXTauFjSYw5djEuVNdX7iGN42CqikXOi34LX4Qc78O2sJmj9JC4rdLUHXmGvFebscpw4-Ts96yU4pbKXbTFdVkG_kC-wuPbpEfyVUQsIW9QTLkfGzBRPWGRvU7EJgaQaEOW7EGdMFbC6o_BLnwHNIyKX8VXN8bhUwgW0GJf4zGBe-clF-Z2zJRplOoXcWaG0VkVOdCFIC9tYILPTCFGJU_7Q9F_._6IQ0jk74je4MyI6-Ekf2Rn7fYQfw1wN75VkdrV0tH0&amp;dib_tag=se&amp;keywords=Amazon%2BBasics%2BNeoprene%2BWorkout%2BDumbbell&amp;qid=1739920493&amp;sprefix=amazon%2Bbasics%2Bneoprene%2Bworkout%2Bdumbbell%2Caps%2C334&amp;sr=8-1&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/03/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28,760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44,923</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 86%
+4 - 9%
+3 - 3%
+2 - 1%
+1 - 1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Google Pixel 7a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Google-Pixel-7a-Unlocked-Smartphone/dp/B0BZ9XNBRB/ref=sr_1_1?crid=3BFGPC3HIE8UB&amp;dib=eyJ2IjoiMSJ9.v0T3__LIutovCssxYrdI0WlZVKHytueuwhNEEEvBM_ksMLkBQICA5lgrpSwPMeJ4V8n1Nzw0o1mwDpvhjjPq_Zy-g6XoYT_4AFT9uyO-HlIj4MKEyyOKgPbVYbTnoT6ntN60MqhaFupnDvZ2DWROJQb7Q545djEZlc3jeZststdLOzpy_JI-5nGU0zU7u9JYINORD6Jaivw8FZy_FXB_El_rDq1IPpTaHblhNAohxZ0.feDAaLBoJv4Ywj1UcbQ-gdRFep-7vmLvThguYwr40Bk&amp;dib_tag=se&amp;keywords=Google%2BPixel%2B7a&amp;qid=1739920527&amp;sprefix=google%2Bpixel%2B7a%2Caps%2C343&amp;sr=8-1&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322,511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86,640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>409,151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 67%
+4 - 14%
+3 - 7%
+2 - 4%
+1 - 8%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flameless LED Tea Light Candles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Homemory-Flickering-Flameless-Long-Lasting-Centerpiece/dp/B01J5EEEQW/ref=sr_1_1_sspa?crid=1J4YYAD5JM1OA&amp;dib=eyJ2IjoiMSJ9.4Da5F-3PQ4MxGJB5BF4mEOulrtV22aGs9S2rgDUAFdytPnhpbmm5MU0WCGxqIvGFCRDc2arRvgZXLvJ7io9fZffhH2cBi9PKc6uYVcJfds6HCr_Jo3CEycpqJdRs0M_EOx1HtjujDHbqUDTB3MycstAVij5jNgPsw2Z4ClmBw5zv5oGt9Xyhf6I7LozvqGSiXVbMgj8Tzbpt49MlhuLRLimhZpw075fPXm1MzhQZ00OkvBPbZEFau3sYo5CpcDBAhBYMUsg51seSRfxn2N4Pl1Or2UD7ZJGbON1kPNpXwkA.Y-Xai9hZuX4RRMw_rRqKkyxGWVXaE4tIFE9MlZV-aNI&amp;dib_tag=se&amp;keywords=Flameless%2BLED%2BTea%2BLight%2BCandles&amp;qid=1739920562&amp;sprefix=flameless%2Bled%2Btea%2Blight%2Bcandles%2Caps%2C304&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S*MAX Gaming Chair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/MAX-Footrest-Ergonomic-Breathable-Headrest/dp/B0CRB52DG6/ref=sr_1_1_sspa?crid=NOHINAO26418&amp;dib=eyJ2IjoiMSJ9.KDEh9a4pljdnBMNbVZTKQvBqdovqgR_rZd0F9jFtVzcVdn6Fn4yq1uPfgWFN-aitJ_jbFIWG3q8Oq9HMz8_u_E9LiNfS9VMWE3i0BEzilUO55fp8QmD8YjrOlUvRLKYJEKFyF5ZW6YZ1ndavj__5xD5TnkoV1rn5xfJVC3W-_-JU_twG51vhq33s1AVEe-pOdbC41JabkuBFqBaw5ecJeCEr_s4B6QpTuG_bjjNb8146gYDxaFwKafqNbrg_rTUruI5LMCP2kTnPm8V0gpqKzRarBKtJKRWuEwF8xzGn9Ms.UfP00mW41IQK_08sl4jqqlsfRGmK7kuHx8Pd0e-DVbQ&amp;dib_tag=se&amp;keywords=S*MAX%2BGaming%2BChair&amp;qid=1739920591&amp;sprefix=s%2Bmax%2Bgaming%2Bchair%2Caps%2C375&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03/03/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255,916</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245,565</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97,077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>598,558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 62%
+4 - 14%
+3 - 9%
+2 - 5%
+1 - 11%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/MAX-Footrest-Ergonomic-Breathable-Headrest/dp/B0CRB52DG6/ref=sr_1_1_sspa?crid=3UNDQI1Z5ZGCA&amp;dib=eyJ2IjoiMSJ9.KDEh9a4pljdnBMNbVZTKQvBqdovqgR_rZd0F9jFtVzcVdn6Fn4yq1uPfgWFN-aitJ_jbFIWG3q8Oq9HMz8_u_E9LiNfS9VMWE3i0BEzilUO55fp8QmD8YjrOlUvRLKYJEKFyF5ZW6YZ1ndavj__5xD5TnkoV1rn5xfJVC3W-_-JU_twG51vhq33s1AVEe-pOdbC41JabkuBFqBaw5ecJeCEr_s4B6QpTuG_bjjNb8146gYDxaFwKafqNbrg_rTUruI5LMCP2kTnPm8V0gpqKzRarBKtJKRWuEwF8xzGn9Ms.UfP00mW41IQK_08sl4jqqlsfRGmK7kuHx8Pd0e-DVbQ&amp;dib_tag=se&amp;keywords=S*MAX%2BGaming%2BChair&amp;qid=1739920625&amp;sprefix=s%2Bmax%2Bgaming%2Bchair%2Caps%2C280&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thermo Funtainer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/THERMOS-FUNTAINER-Stainless-Vacuum-Insulated/dp/B08VFGRB7J/ref=sr_1_1?crid=3AV5S24IKBQPD&amp;dib=eyJ2IjoiMSJ9.BKsy4JaAlUYyXn_xEUuEVTBU8F4H6yOOA8oL0G8a51YPcRsp9Vb9qywWK_XxO-4HYJY_E_kUOwK03R7VYUN0EZhsp_3jtUaNsLixxEqLaA3qrBnrSE9iPr-WYJJc16XAyZXKdUVIqjtT0X0WHW4hI3xmdOjMEDO9QND6BGddTTVac6ywZKhdBJdWr-Uywa4x5ZBaTiN1KjcIFbMZ55hwIDa0QZcw-CLRnK-qfmaA-_rGpyfdYZtcFnvC4S5SrltK-v2AXusjkqep5IMvWh_ZM8AQ1mbW2Iz0qFu5Czu-Z1EIezZqmCsGZlftwDc8W0y8U6AVyXCstcs7kbFfYyEYmBPDFXOrIPxd-_70wMy3G9JWhzUxn5eqiBu-WhjpXrC_pESDygfLZV2IednPKt6xRRYf4flYU7WfmNB42sSFhU_LiFHhLqFs4lYrR67DgrOr.uuT1DhQFzvP-YkQGK6vE2RkJ2s2UF2h1UHMhBCtxbMk&amp;dib_tag=se&amp;keywords=thermos%2Bfuntainer&amp;qid=1739920681&amp;sprefix=thermo%2Bfuntainer%2Caps%2C334&amp;sr=8-1&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoppy The Bunny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uruguay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Bunby-Realistic-Vitality-Movements-Interactive/dp/B0DT9LSL9Z/ref=sr_1_1_sspa?crid=1GAS32I2LEXR0&amp;dib=eyJ2IjoiMSJ9.FHSpTTDHhl4Z6HHumjFH7hgLRglkxZTOualP7jC0uNgQKw3U1XjcDSkhbS9bGY0fG0BZu7VL-g7ug3wX92dp0RX0jcVkeF6o052B2rKza0VkA1UKROvObpJVrNY_vEm5P_u9XRofFu2r1qJN4gobtU4nw7QjhrpHwRwu7Qxm2N4Uoj43EbytR8os2GNU_dJjJS_vbt_XAkDmolCWntdsEUKVg367ft_FbVXGPhtxaU87ePEgAXWVU_OOWX626bcVZ4wqryKwuxJqG6h2yi5dDT5muqMmgxRdmdM76NFynRo.xSsYtfdqxHXrks2Af0qG5N7YhqOc2yvWEsCgvuHpxjg&amp;dib_tag=se&amp;keywords=Hoppy%2BThe%2BBunny&amp;qid=1739920740&amp;sprefix=hoppy%2Bthe%2Bbunny%2Caps%2C328&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79,410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 100%
+4 - 0%
+3 - 0%
+2 - 0%
+1 - 0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRbrew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/MRbrew-American-System-Picnic-Chrome-Plated/dp/B07YV341NZ/ref=sr_1_1_sspa?crid=3D8OHDUDKJA6W&amp;dib=eyJ2IjoiMSJ9.UKSGlt_lp8N0XMxXLl7T6C32Fxnw3dXcfG8izXx-6dz5wfWDV2uqKHHWaPtx0wy8q9T8TinKVKCmUKIZIF5KWGJCof_wiX-nPhsU8OtlpP3IFuFdRVtIdvDuE96j9wPA2U74_uqsY5e8bpCVCm_vlRYD0nJlQvd3XaPNzCaG48NBPy2esUZyjxhvOk65PBmYXOn7tSEsk6XpsAQRAWt_Lo-hNiRpnXS6ouLF3zi9GVtF-NncVuksmF_AZDYMVHBS9g5d3bSIFNSjDbJvHa4do9H_xrfiIdYe82xPm_-ymeE.F4JAtcF5URdKvVel02fi6yz51l3gDNWvt1Oj4veyly4&amp;dib_tag=se&amp;keywords=MRbrew&amp;qid=1739920773&amp;sprefix=mrbrew%2Caps%2C326&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47,558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 78%
 4 - 11%
-3 - 6%
+3 - 5%
+2 - 2%
+1 - 4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pokemon - Charizard - XY Evo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Funko-Pop-Games-Pokemon-Charizard/dp/B08XC6PKY8/ref=sr_1_1_sspa?crid=3F604FQ631YKG&amp;dib=eyJ2IjoiMSJ9.sUmYSnrXrAIpPyFOFK6smRikXVqJ5L_Hk58f-VnIJSzyuTohJMMXKpSOBYVJS4H1LQ5jw7H4xl1uG0uKPmRGL7H6c8OBicplFLch9XHqApDwDLoFz9UxOOOXTpLcHlNBN9m9Ss6SdavfMA6kCBedRs71MWpGBGL6R1uYjccJumwN2hKOTTCDg4-KZoJzr3kBz0w0k9yZNrnVmJ6RtwLHAP77FNuN4a9B86YLXBNrRFS-_X-qeK-FHFcr72e6JJGtyXpIC8ZIFR00JO6u26zvo1VutO3Aj0pVxUSCguhgW04.lQGjoVdHpCCxGStAicbcCat8tfdrUKOvkQ6yTzr1_Ao&amp;dib_tag=se&amp;keywords=Pokemon%2B-%2BCharizard%2B-%2BXY%2BEvo&amp;qid=1739920808&amp;sprefix=pokemon%2B-%2Bcharizard%2B-%2Bxy%2Bevo%2Caps%2C345&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 91%
+4 - 5%
+3 - 2%
 2 - 1%
-1 - 5%</x:t>
+1 - 1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cinderace Vmax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Cinderace-Vmax-045-264-Pokemon/dp/B09T2N8MYN/ref=sr_1_1?crid=1TNBV8RXGK270&amp;dib=eyJ2IjoiMSJ9.RBzhf3rhSOU0GS44et-c5JjlCJ7SiFN0firXy_2RwJyEzlDFI9tI_PWOEBFgEuvPYtZTGI9dCNWhYEItS82-iWNjzznM_TJJX57zN8s9uxVOw07ecViyQtC1OSiPWvDYiMtX_IczSn4dJ9DKoKcelVFFEUvhkSDNq5d7qPPQ67pSaByrJOPFQlo3zlh17KktZTYcDoLpPnDnkv5k5oJ-fwh5qnrWJqRQ4ydz74rdf3-0udaV38bdWfITOz_gepkLMCN1mvHunwCgxc3EH6hLQlnIgKbgJlZneAZ6VUyovdiWu3ndc4zNruDrTHTmKo3dMNOtFECuAJdxoH9K-OaLZTzH32rAFt3TgWvG0pwjm5iZ6Ha71RvsSyzA64V8i8nNcPg1bPpLzAcfsen94DpndIbAeVw4xVdosuaRb4Qrc7qRZG2Lrsmw2A1ZVozUlNcN.elfmF--9udXhiFTVP4TOGvWpxCtNave33G0T-daO2hg&amp;dib_tag=se&amp;keywords=Cinderace+Vmax&amp;qid=1739920842&amp;sprefix=cinderace+vmax%2Caps%2C347&amp;sr=8-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 85%
+4 - 7%
+3 - 4%
+2 - 0%
+1 - 4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Officemate Letter Size Wall File</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Officemate-26092-Letter-Recycled-Black/dp/B003G4MNUW/ref=sr_1_1?crid=2GF65IE8U9ZCX&amp;dib=eyJ2IjoiMSJ9.qXdiULDgzH5TWncgk_YofU84WicSek7V0AzL__df2HxptuaWZHXXpxgc1gVmPywKwNwfMtCo3o3nC02pB1HtncuJYP6e3BAb970hIdh97nbR1TojwAHaVg_NxWuDBx1YDuOTmnaYNkK6VOhtmp9MIdpWn0RxUz7oUsRAbpxrS1OA4pkyMzbIv9UdVEus6u-jJo9556HAerRmwld5GkC-ImWwUBrZ-z1i2l61rwveLOZS6tsmB7EJ8-Y1Ghs96SkCFbrY33RFOeF9vCY4VPkjhIN6SXJJ7l_3F6YDTTXEB_i-bqy4CXBYvLVu6MJQ0SS2ONMoBkwI2_VJoaEmw36tKvMAsGiuh-H4Mvy9rTjICYiVjRSl85EK-yS9-g_KBVu_ymsER8wgqN_-Soeoku87b1hkv8u7jod_Io9rxvgOxswN_Z_6EnyY8V0RaNmdPtpp.FMzab6szfohpJ29sTYpKzEyI5zX8OGotsDY0k6pyN4o&amp;dib_tag=se&amp;keywords=Officemate+Letter+Size+Wall+File&amp;qid=1739920875&amp;sprefix=officemate+letter+size+wall+file%2Caps%2C327&amp;sr=8-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35,647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 71%
+4 - 9%
+3 - 9%
+2 - 3%
+1 - 8%</x:t>
   </x:si>
   <x:si>
     <x:t>5 - 84%
@@ -211,6 +479,48 @@
 3 - 11%
 2 - 5%
 1 - 7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 76%
+4 - 12%
+3 - 0%
+2 - 12%
+1 - 0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 81%
+4 - 13%
+3 - 4%
+2 - 1%
+1 - 2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 71%
+4 - 14%
+3 - 7%
+2 - 3%
+1 - 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 91%
+4 - 5%
+3 - 2%
+2 - 1%
+1 - 1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 85%
+4 - 7%
+3 - 4%
+2 - 0%
+1 - 4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 - 71%
+4 - 9%
+3 - 9%
+2 - 3%
+1 - 8%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -703,115 +1013,462 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I4" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I7" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I8" s="4" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I9" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I10" s="4" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I11" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I12" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10" s="0" customFormat="1">
+      <x:c r="A13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s"/>
+      <x:c r="G13" s="0" t="s"/>
+      <x:c r="H13" s="0" t="s"/>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I14" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I17" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I7" s="4" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10" s="0" customFormat="1">
-      <x:c r="A13" s="0"/>
-      <x:c r="B13" s="0"/>
-      <x:c r="C13" s="0"/>
-      <x:c r="D13" s="0"/>
-      <x:c r="E13" s="0"/>
-      <x:c r="F13" s="0"/>
-      <x:c r="G13" s="0"/>
-      <x:c r="H13" s="0"/>
-      <x:c r="I13" s="0"/>
-      <x:c r="J13" s="0"/>
+      <x:c r="E18" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I18" s="4" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I19" s="4" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I20" s="4" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I21" s="4" t="s">
+        <x:v>119</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -875,118 +1532,263 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I2" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I4" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I5" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I6" s="4" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I7" s="4" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I8" s="4" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I9" s="4" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I10" s="4" t="s">
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" s="0" customFormat="1">
